--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/41.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/41.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06536616918999165</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.541313197473822</v>
+        <v>-1.562010245718591</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09262160108685268</v>
+        <v>0.1909816788639817</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1041673994976934</v>
+        <v>0.1122939825946845</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06194876572497546</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.409144606663872</v>
+        <v>-1.464404029897922</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05462232308409518</v>
+        <v>0.1659358961939995</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09290094475680329</v>
+        <v>0.08754218169089485</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06850450713507</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.391605117762628</v>
+        <v>-1.463753244535832</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005042481191922293</v>
+        <v>0.1422240100440652</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1354746278351712</v>
+        <v>0.1304122862181623</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.0854081525386223</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.432125197922385</v>
+        <v>-1.539165056850315</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02994310274083851</v>
+        <v>0.1651497084416712</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1144341942493935</v>
+        <v>0.09347549003429996</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1062425574866257</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.441821716841325</v>
+        <v>-1.545058110429055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1150099593682436</v>
+        <v>0.2683671944884218</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1358497290513713</v>
+        <v>0.1066412377625835</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1246530482657728</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.323203733706686</v>
+        <v>-1.485306621410755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1837004458249634</v>
+        <v>0.3267494115874227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06607297386936321</v>
+        <v>0.04055572251625471</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1369340225040204</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.048681486705769</v>
+        <v>-1.211394295086586</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2617806611002196</v>
+        <v>0.3701013534493212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02287839154206575</v>
+        <v>-0.005445104844760564</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1407081444365867</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4956566503674772</v>
+        <v>-0.6437935744153688</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2150674463887625</v>
+        <v>0.3116044712630917</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02845680205778804</v>
+        <v>-0.01047329090387155</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1326207368457197</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1421965636136116</v>
+        <v>-0.02280405722568704</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2671003892428161</v>
+        <v>0.2808046969286682</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05238521004796785</v>
+        <v>-0.04949357611950531</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1088984398057398</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9430175328183976</v>
+        <v>0.7731186390241354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0740086517945322</v>
+        <v>0.08672549790472921</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01102770879903554</v>
+        <v>0.003691506892925345</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06140898760542451</v>
       </c>
       <c r="E12" t="n">
-        <v>1.845928244738627</v>
+        <v>1.57997172372196</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2997165833587798</v>
+        <v>-0.2937472896954466</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1215391602128316</v>
+        <v>0.111438263885207</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01668345903435839</v>
       </c>
       <c r="E13" t="n">
-        <v>2.702380078869604</v>
+        <v>2.341830350175403</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6432214688205791</v>
+        <v>-0.6481392592371986</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2362066871241735</v>
+        <v>0.2332558908900664</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1292537481991931</v>
       </c>
       <c r="E14" t="n">
-        <v>3.489303395534009</v>
+        <v>3.051438902013871</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.199570372847148</v>
+        <v>-1.181142229519882</v>
       </c>
       <c r="G14" t="n">
-        <v>0.429432607121342</v>
+        <v>0.4023923838383936</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2724168909484003</v>
       </c>
       <c r="E15" t="n">
-        <v>4.366137558840552</v>
+        <v>3.788883013697766</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.838783709937385</v>
+        <v>-1.754433510105159</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6167971894149616</v>
+        <v>0.5483055370988618</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4407687510085334</v>
       </c>
       <c r="E16" t="n">
-        <v>5.122866142481867</v>
+        <v>4.427526074955243</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.407204163998152</v>
+        <v>-2.262298599695671</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8098694094015896</v>
+        <v>0.7277411505947566</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6251316211186203</v>
       </c>
       <c r="E17" t="n">
-        <v>5.796179534688411</v>
+        <v>5.041879655181907</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.948724676531622</v>
+        <v>-2.795726684690048</v>
       </c>
       <c r="G17" t="n">
-        <v>1.034295821617805</v>
+        <v>0.9388688523751574</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8123884206073715</v>
       </c>
       <c r="E18" t="n">
-        <v>6.263107968296947</v>
+        <v>5.418240967500124</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.503264860791294</v>
+        <v>-3.321627738612678</v>
       </c>
       <c r="G18" t="n">
-        <v>1.283932085166048</v>
+        <v>1.138124448182657</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9941844465749291</v>
       </c>
       <c r="E19" t="n">
-        <v>6.656775169897214</v>
+        <v>5.746619820178571</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.974504823663763</v>
+        <v>-3.799633246591974</v>
       </c>
       <c r="G19" t="n">
-        <v>1.524376234195021</v>
+        <v>1.36857565684379</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.166790581053168</v>
       </c>
       <c r="E20" t="n">
-        <v>7.034059902120028</v>
+        <v>6.111462170595725</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.416151740260753</v>
+        <v>-4.296191321716592</v>
       </c>
       <c r="G20" t="n">
-        <v>1.704533383851509</v>
+        <v>1.549165240260092</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.329430553086391</v>
       </c>
       <c r="E21" t="n">
-        <v>7.298367807547445</v>
+        <v>6.329746681597086</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.726125321637313</v>
+        <v>-4.605598591744791</v>
       </c>
       <c r="G21" t="n">
-        <v>1.872442716398219</v>
+        <v>1.697080763102324</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.477291785645208</v>
       </c>
       <c r="E22" t="n">
-        <v>7.468818679554165</v>
+        <v>6.477642686977663</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.958114140324528</v>
+        <v>-4.868112720461893</v>
       </c>
       <c r="G22" t="n">
-        <v>2.026409262274468</v>
+        <v>1.884112938627116</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.607233451538369</v>
       </c>
       <c r="E23" t="n">
-        <v>7.560950857301019</v>
+        <v>6.556223647128529</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.133137282684489</v>
+        <v>-5.116194296205105</v>
       </c>
       <c r="G23" t="n">
-        <v>2.149210081410246</v>
+        <v>1.994886731938098</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.716251152050583</v>
       </c>
       <c r="E24" t="n">
-        <v>7.613241796601337</v>
+        <v>6.652134893388514</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.213297937388132</v>
+        <v>-5.234100501909979</v>
       </c>
       <c r="G24" t="n">
-        <v>2.273561928826993</v>
+        <v>2.091027308372541</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.803890350181873</v>
       </c>
       <c r="E25" t="n">
-        <v>7.624719283896382</v>
+        <v>6.6711631986617</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.210039131212268</v>
+        <v>-5.260668646589124</v>
       </c>
       <c r="G25" t="n">
-        <v>2.306307350120243</v>
+        <v>2.153429512651988</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.867064256937382</v>
       </c>
       <c r="E26" t="n">
-        <v>7.573566456578876</v>
+        <v>6.706377578854426</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.190863530095648</v>
+        <v>-5.265715130268537</v>
       </c>
       <c r="G26" t="n">
-        <v>2.320407496325304</v>
+        <v>2.182684967832886</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.90092441123996</v>
       </c>
       <c r="E27" t="n">
-        <v>7.40803642459216</v>
+        <v>6.595109749795278</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.190801623146958</v>
+        <v>-5.253922618943952</v>
       </c>
       <c r="G27" t="n">
-        <v>2.312960364862211</v>
+        <v>2.189601468307209</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.902112601589226</v>
       </c>
       <c r="E28" t="n">
-        <v>7.243019945815266</v>
+        <v>6.492716266582814</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.15178011808997</v>
+        <v>-5.18387658378316</v>
       </c>
       <c r="G28" t="n">
-        <v>2.249899446251876</v>
+        <v>2.148931957581648</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.867945275579156</v>
       </c>
       <c r="E29" t="n">
-        <v>7.006313390693405</v>
+        <v>6.37635925939688</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.005815121571978</v>
+        <v>-5.034947372776172</v>
       </c>
       <c r="G29" t="n">
-        <v>2.167068558825429</v>
+        <v>2.062751995719178</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.802054062710966</v>
       </c>
       <c r="E30" t="n">
-        <v>6.78456331040676</v>
+        <v>6.207822318473797</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.899164392035813</v>
+        <v>-4.858473839046905</v>
       </c>
       <c r="G30" t="n">
-        <v>2.129005849072289</v>
+        <v>2.015865563535525</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.709029025710957</v>
       </c>
       <c r="E31" t="n">
-        <v>6.540930496079748</v>
+        <v>6.030708672994281</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.853528297239493</v>
+        <v>-4.737565298810738</v>
       </c>
       <c r="G31" t="n">
-        <v>2.0497015229988</v>
+        <v>1.908503056569594</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.59841859986987</v>
       </c>
       <c r="E32" t="n">
-        <v>6.212983467240439</v>
+        <v>5.816968071034692</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.650632694833161</v>
+        <v>-4.502199959257046</v>
       </c>
       <c r="G32" t="n">
-        <v>1.95692892854136</v>
+        <v>1.83703194174758</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.478342732935776</v>
       </c>
       <c r="E33" t="n">
-        <v>5.856065206255596</v>
+        <v>5.542230522034883</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.520661343261195</v>
+        <v>-4.353209146261707</v>
       </c>
       <c r="G33" t="n">
-        <v>1.871741917540635</v>
+        <v>1.740710218872143</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.357097933757659</v>
       </c>
       <c r="E34" t="n">
-        <v>5.557728606431051</v>
+        <v>5.313948191300266</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.334766974758876</v>
+        <v>-4.142539799869883</v>
       </c>
       <c r="G34" t="n">
-        <v>1.697316192483549</v>
+        <v>1.590133002196582</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.240538601388441</v>
       </c>
       <c r="E35" t="n">
-        <v>5.240092896552844</v>
+        <v>5.047982521473448</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.258210951254814</v>
+        <v>-4.019939339676418</v>
       </c>
       <c r="G35" t="n">
-        <v>1.649774705493068</v>
+        <v>1.524301823872457</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.133192859110051</v>
       </c>
       <c r="E36" t="n">
-        <v>4.872502243566264</v>
+        <v>4.734266161864023</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.130143467075317</v>
+        <v>-3.857749233315574</v>
       </c>
       <c r="G36" t="n">
-        <v>1.583588553335076</v>
+        <v>1.480824238351149</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.03783438684966</v>
       </c>
       <c r="E37" t="n">
-        <v>4.508641865438674</v>
+        <v>4.40701566243756</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.985613613909714</v>
+        <v>-3.71519430330128</v>
       </c>
       <c r="G37" t="n">
-        <v>1.482259991624214</v>
+        <v>1.381418756534074</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.953241830721961</v>
       </c>
       <c r="E38" t="n">
-        <v>4.154691478466888</v>
+        <v>4.110069681756</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.850623835009465</v>
+        <v>-3.612529405387664</v>
       </c>
       <c r="G38" t="n">
-        <v>1.368507345727994</v>
+        <v>1.271889811324334</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8796054158079012</v>
       </c>
       <c r="E39" t="n">
-        <v>3.869653589078158</v>
+        <v>3.845450716783442</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.753323189447847</v>
+        <v>-3.542342783510881</v>
       </c>
       <c r="G39" t="n">
-        <v>1.296254922519066</v>
+        <v>1.182602303613832</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8133127167118641</v>
       </c>
       <c r="E40" t="n">
-        <v>3.493624073608092</v>
+        <v>3.500272208984645</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.666577831118031</v>
+        <v>-3.47034591706551</v>
       </c>
       <c r="G40" t="n">
-        <v>1.181618501562238</v>
+        <v>1.089255163878896</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7541754755241591</v>
       </c>
       <c r="E41" t="n">
-        <v>3.256072168428258</v>
+        <v>3.280761757423019</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.527586667617977</v>
+        <v>-3.367704501097948</v>
       </c>
       <c r="G41" t="n">
-        <v>1.113547084592417</v>
+        <v>1.026569346484761</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6997308757714024</v>
       </c>
       <c r="E42" t="n">
-        <v>2.925159705258599</v>
+        <v>2.976932211983681</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.410405962558094</v>
+        <v>-3.275952913853384</v>
       </c>
       <c r="G42" t="n">
-        <v>1.036210972542794</v>
+        <v>0.9932390112625095</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6491170071467439</v>
       </c>
       <c r="E43" t="n">
-        <v>2.604543922953801</v>
+        <v>2.652909412778569</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.280835938791429</v>
+        <v>-3.178835549455129</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9603465990861635</v>
+        <v>0.9035642039222728</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6007903904481675</v>
       </c>
       <c r="E44" t="n">
-        <v>2.338223279293115</v>
+        <v>2.422350858078328</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.240902297362365</v>
+        <v>-3.143380555555426</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9279811583745278</v>
+        <v>0.8898007339307761</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5525242011060386</v>
       </c>
       <c r="E45" t="n">
-        <v>2.06321492551283</v>
+        <v>2.161373119545955</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.162055411796437</v>
+        <v>-3.058519852116762</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8224270662151554</v>
+        <v>0.81524281056374</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5020400882694955</v>
       </c>
       <c r="E46" t="n">
-        <v>1.939133882876559</v>
+        <v>2.015926555603199</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.059185275575094</v>
+        <v>-2.964464289515782</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7755101379976646</v>
+        <v>0.7761011511334334</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4471881825262856</v>
       </c>
       <c r="E47" t="n">
-        <v>1.693214475932418</v>
+        <v>1.797531039038669</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.964108705761238</v>
+        <v>-2.885752806340092</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6575587981627111</v>
+        <v>0.6981221826905174</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3881179746389904</v>
       </c>
       <c r="E48" t="n">
-        <v>1.520940551022899</v>
+        <v>1.658528896966433</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.853360529118679</v>
+        <v>-2.819734992288882</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6061369958267591</v>
+        <v>0.6402468096738942</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.325173354827837</v>
       </c>
       <c r="E49" t="n">
-        <v>1.380161710019296</v>
+        <v>1.478570581450565</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.795105175520442</v>
+        <v>-2.776643486555955</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5418019529226972</v>
+        <v>0.5604411288041179</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2609938942426662</v>
       </c>
       <c r="E50" t="n">
-        <v>1.269746550066241</v>
+        <v>1.384942878204324</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.734446734455817</v>
+        <v>-2.692719621276776</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5028890137461711</v>
+        <v>0.5446325947834849</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1979534677486833</v>
       </c>
       <c r="E51" t="n">
-        <v>1.165228713136664</v>
+        <v>1.285580090834621</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.690240293725795</v>
+        <v>-2.632674150492283</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4287525455667679</v>
+        <v>0.4582818551315251</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1389697664216422</v>
       </c>
       <c r="E52" t="n">
-        <v>1.124917835769031</v>
+        <v>1.238778437625036</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.605296031154416</v>
+        <v>-2.549687123372589</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3714071936182388</v>
+        <v>0.386101402562453</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.08584421717076911</v>
       </c>
       <c r="E53" t="n">
-        <v>1.079426902093778</v>
+        <v>1.191014939508219</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.554500007432808</v>
+        <v>-2.509643391261372</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3370826876928883</v>
+        <v>0.3758840113855695</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.03906717602798362</v>
       </c>
       <c r="E54" t="n">
-        <v>1.036967274181962</v>
+        <v>1.118216637293601</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.496632563384982</v>
+        <v>-2.459459727899218</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3103346164141022</v>
+        <v>0.3275795136284768</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.002275428020350688</v>
       </c>
       <c r="E55" t="n">
-        <v>1.033274814404929</v>
+        <v>1.09790261923383</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.443936026834626</v>
+        <v>-2.431808974018845</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2881603402902498</v>
+        <v>0.2969492972421893</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.04019299331192445</v>
       </c>
       <c r="E56" t="n">
-        <v>1.030175807446372</v>
+        <v>1.086663610923393</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.419833181530897</v>
+        <v>-2.401756962434115</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2441801801313009</v>
+        <v>0.2572190643588209</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.07698053148346279</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9543047248622972</v>
+        <v>0.9771797998437332</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.373068733482593</v>
+        <v>-2.362686663722988</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1894251612969207</v>
+        <v>0.221283148005502</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1147101056313231</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9338614036190558</v>
+        <v>0.975262819156714</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.38976165248451</v>
+        <v>-2.388191716662561</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1698839127345897</v>
+        <v>0.2089621404145145</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1551651186029455</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9441458860703815</v>
+        <v>0.9608009899903408</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.325128358369519</v>
+        <v>-2.327142926364818</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1601166430171463</v>
+        <v>0.2016827371375264</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1995009061558088</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9373245332216313</v>
+        <v>0.9540936923081424</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.336522286531849</v>
+        <v>-2.346879959464385</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1626081689816621</v>
+        <v>0.1871257603455805</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.248508519948313</v>
       </c>
       <c r="E61" t="n">
-        <v>1.007139103485598</v>
+        <v>1.048209332095782</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.33287618072625</v>
+        <v>-2.365400810734517</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1652100905886693</v>
+        <v>0.2016430922935378</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3014736638841264</v>
       </c>
       <c r="E62" t="n">
-        <v>1.036916040845115</v>
+        <v>1.065571944000769</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.350634021229769</v>
+        <v>-2.351551951848275</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1457737483827389</v>
+        <v>0.1676912479016804</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3566629982332348</v>
       </c>
       <c r="E63" t="n">
-        <v>1.096177153639309</v>
+        <v>1.129303775355527</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.351622092726101</v>
+        <v>-2.367869769633993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1216940800647256</v>
+        <v>0.1414018369718089</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4128368542626735</v>
       </c>
       <c r="E64" t="n">
-        <v>1.134289266967265</v>
+        <v>1.2038397415782</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.447036253634537</v>
+        <v>-2.429237548445675</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1598494977607306</v>
+        <v>0.1658486775372245</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4692789224236738</v>
       </c>
       <c r="E65" t="n">
-        <v>1.213264235875311</v>
+        <v>1.242915529575418</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.533477261546655</v>
+        <v>-2.54655091125275</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1345402293583932</v>
+        <v>0.1330001796496044</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5258606064367459</v>
       </c>
       <c r="E66" t="n">
-        <v>1.24273133353104</v>
+        <v>1.281822979465853</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.614484486149625</v>
+        <v>-2.626644474681952</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1237970865581529</v>
+        <v>0.1338522388350214</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5808964602128729</v>
       </c>
       <c r="E67" t="n">
-        <v>1.299514948536284</v>
+        <v>1.329509017656723</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.643098304778584</v>
+        <v>-2.672636153232816</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05999389448421532</v>
+        <v>0.09339010113955523</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6342398098920853</v>
       </c>
       <c r="E68" t="n">
-        <v>1.344518555590816</v>
+        <v>1.367643088129042</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.682160064600236</v>
+        <v>-2.758789888506186</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0534055313339828</v>
+        <v>0.06275561530853052</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6841408531406441</v>
       </c>
       <c r="E69" t="n">
-        <v>1.332485430559254</v>
+        <v>1.351849802125328</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.722231853062584</v>
+        <v>-2.800202282616025</v>
       </c>
       <c r="G69" t="n">
-        <v>0.07838849217426</v>
+        <v>0.09237397329209297</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7294405899556817</v>
       </c>
       <c r="E70" t="n">
-        <v>1.38433783689299</v>
+        <v>1.364159831144134</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.697985676399818</v>
+        <v>-2.838092384817645</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04779121150451693</v>
+        <v>0.08449501798986156</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7684667795085772</v>
       </c>
       <c r="E71" t="n">
-        <v>1.385397269108501</v>
+        <v>1.352369454541917</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.727676614943914</v>
+        <v>-2.901873009826543</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02993700353407103</v>
+        <v>0.07826223859417315</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8005267755197212</v>
       </c>
       <c r="E72" t="n">
-        <v>1.41823478842394</v>
+        <v>1.34724307125385</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.769728205922986</v>
+        <v>-2.980410055688683</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.01148270962388959</v>
+        <v>0.03410215183558352</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8249369185433914</v>
       </c>
       <c r="E73" t="n">
-        <v>1.488018862654069</v>
+        <v>1.395266395578962</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.801972272419949</v>
+        <v>-3.039246663691862</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.07037543032932857</v>
+        <v>-0.02004782568746257</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8402789273035769</v>
       </c>
       <c r="E74" t="n">
-        <v>1.524810497716865</v>
+        <v>1.386715917611631</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.79921299127834</v>
+        <v>-3.083180469879378</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.09837505883680166</v>
+        <v>-0.04509543811947506</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8462064010755797</v>
       </c>
       <c r="E75" t="n">
-        <v>1.52749170901185</v>
+        <v>1.368656776293797</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.766709708493759</v>
+        <v>-3.082355247203738</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1074433594586918</v>
+        <v>-0.03698227327737239</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8415785141702756</v>
       </c>
       <c r="E76" t="n">
-        <v>1.599086027810567</v>
+        <v>1.392568716425705</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.806066060002281</v>
+        <v>-3.153727554876119</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1174985117355603</v>
+        <v>-0.05282435293522645</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8268691887513445</v>
       </c>
       <c r="E77" t="n">
-        <v>1.560355454916389</v>
+        <v>1.306542454573775</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.82401358583627</v>
+        <v>-3.158668522278455</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1068657645778114</v>
+        <v>-0.05864970531884715</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8015813558604659</v>
       </c>
       <c r="E78" t="n">
-        <v>1.634816400895822</v>
+        <v>1.354271797132695</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.823024294498584</v>
+        <v>-3.156237073500598</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.116404923962151</v>
+        <v>-0.03711218638151973</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7661804319978973</v>
       </c>
       <c r="E79" t="n">
-        <v>1.690032519761824</v>
+        <v>1.391150040931589</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.800242537380691</v>
+        <v>-3.109852910994247</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.07015341920299227</v>
+        <v>-0.003204256278388199</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7209208838374369</v>
       </c>
       <c r="E80" t="n">
-        <v>1.77091288086403</v>
+        <v>1.444223508460175</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.742484269134003</v>
+        <v>-3.062307154559029</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.08958732172621564</v>
+        <v>-0.01715985128306051</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.666715741066361</v>
       </c>
       <c r="E81" t="n">
-        <v>1.892951909074549</v>
+        <v>1.57997538324602</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.605178316463804</v>
+        <v>-2.951407717588637</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1104142830751316</v>
+        <v>-0.03450416556774503</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6048292672976798</v>
       </c>
       <c r="E82" t="n">
-        <v>1.952877835406399</v>
+        <v>1.650899399220991</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.510266730193008</v>
+        <v>-2.830919107738411</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.06807602937798839</v>
+        <v>-0.01123508182912988</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5361190782152867</v>
       </c>
       <c r="E83" t="n">
-        <v>2.11202443759027</v>
+        <v>1.82651568943909</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.380401809779135</v>
+        <v>-2.695629552825541</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.05935904306590514</v>
+        <v>0.02588530047843368</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4621208010249849</v>
       </c>
       <c r="E84" t="n">
-        <v>2.320875915405047</v>
+        <v>2.026724591264347</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.263125652133342</v>
+        <v>-2.598269135037602</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.0934475096893541</v>
+        <v>-0.01060137424598864</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3840101551827641</v>
       </c>
       <c r="E85" t="n">
-        <v>2.439242001300189</v>
+        <v>2.168490893843605</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.051011098697963</v>
+        <v>-2.393113776523918</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06821143176822646</v>
+        <v>0.03431684391379883</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3046219281244688</v>
       </c>
       <c r="E86" t="n">
-        <v>2.595031600079238</v>
+        <v>2.321427283696827</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.855496146400959</v>
+        <v>-2.205084380692643</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06231837818948673</v>
+        <v>0.03299697556931603</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2269219092931004</v>
       </c>
       <c r="E87" t="n">
-        <v>2.739740160003129</v>
+        <v>2.444342157999156</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.59715265527146</v>
+        <v>-1.952185651444475</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03853940076511018</v>
+        <v>0.05007231483555466</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1553607485097773</v>
       </c>
       <c r="E88" t="n">
-        <v>2.853822163064793</v>
+        <v>2.541687937690853</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.317862658340404</v>
+        <v>-1.661145532675867</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.06802052659640431</v>
+        <v>0.05087192084277137</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.09351755474202796</v>
       </c>
       <c r="E89" t="n">
-        <v>2.906014295215478</v>
+        <v>2.576220426566975</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.126143242414803</v>
+        <v>-1.467288344778264</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09167325044069401</v>
+        <v>0.01454382549430354</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04433103630313583</v>
       </c>
       <c r="E90" t="n">
-        <v>2.983143644155684</v>
+        <v>2.644869438417676</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9385212735955956</v>
+        <v>-1.254332100808973</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09753580798559634</v>
+        <v>0.005248634380663137</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.009970127503344892</v>
       </c>
       <c r="E91" t="n">
-        <v>2.955376395426052</v>
+        <v>2.640958627038367</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6168857039192747</v>
+        <v>-0.9078062782352401</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.0971357000216496</v>
+        <v>0.01182174951397696</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.00827019730918621</v>
       </c>
       <c r="E92" t="n">
-        <v>2.899675999542712</v>
+        <v>2.57613137814817</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4489611233556459</v>
+        <v>-0.7117753330457073</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09152564963692097</v>
+        <v>0.0006784987497899383</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.008415383323914423</v>
       </c>
       <c r="E93" t="n">
-        <v>2.846167658571605</v>
+        <v>2.504353473225751</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1804307370831016</v>
+        <v>-0.4091778273734003</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1684189592752254</v>
+        <v>-0.07451557188309438</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.008723302356523212</v>
       </c>
       <c r="E94" t="n">
-        <v>2.738594728972196</v>
+        <v>2.446027978749688</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.004898005997717556</v>
+        <v>-0.1686245025432895</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1736099941550281</v>
+        <v>-0.1124007947193</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04101222134678153</v>
       </c>
       <c r="E95" t="n">
-        <v>2.577280468703163</v>
+        <v>2.301237689455113</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1816785587815436</v>
+        <v>0.03761529493365233</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1757752125574837</v>
+        <v>-0.1489265043670342</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08129802476103931</v>
       </c>
       <c r="E96" t="n">
-        <v>2.377310655783191</v>
+        <v>2.138283962406981</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2944785085806829</v>
+        <v>0.1911609955429457</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2004178376601355</v>
+        <v>-0.1922668577360745</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1190564408602516</v>
       </c>
       <c r="E97" t="n">
-        <v>2.201780364380514</v>
+        <v>1.976792215221014</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4028821501418223</v>
+        <v>0.320594702038358</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2145576287091857</v>
+        <v>-0.205362464586532</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.143342948722081</v>
       </c>
       <c r="E98" t="n">
-        <v>1.952108115512343</v>
+        <v>1.771095857067055</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4437468354839422</v>
+        <v>0.4054938304796575</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.307508929924913</v>
+        <v>-0.3281986591215607</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.148727315623425</v>
       </c>
       <c r="E99" t="n">
-        <v>1.730492217774583</v>
+        <v>1.611580252873751</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5041478900229791</v>
+        <v>0.4613125509742863</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3164875722073212</v>
+        <v>-0.318507019568034</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1363325947992715</v>
       </c>
       <c r="E100" t="n">
-        <v>1.541846802059792</v>
+        <v>1.43382436092162</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5164011964188475</v>
+        <v>0.486976793210491</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3762476001150959</v>
+        <v>-0.4025034654077463</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1158442273656237</v>
       </c>
       <c r="E101" t="n">
-        <v>1.349662626578509</v>
+        <v>1.302986007107657</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5347171143415917</v>
+        <v>0.4988787852965526</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4102994714979399</v>
+        <v>-0.4097962869396228</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09524073693093199</v>
       </c>
       <c r="E102" t="n">
-        <v>1.122557442750016</v>
+        <v>1.099325564172683</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5005853433500936</v>
+        <v>0.4571736292618739</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4375086428083476</v>
+        <v>-0.4454546893850213</v>
       </c>
     </row>
   </sheetData>
